--- a/xlsx/甜品_intext.xlsx
+++ b/xlsx/甜品_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Dessert</t>
   </si>
   <si>
-    <t>政策_政策_美國_甜品</t>
+    <t>政策_政策_美国_甜品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B4%E6%9C%83</t>
   </si>
   <si>
-    <t>宴會</t>
+    <t>宴会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boodle_fight</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>進食</t>
+    <t>进食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%89%A9</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E6%A1%8C%E7%A6%AE%E5%84%80</t>
   </si>
   <si>
-    <t>餐桌禮儀</t>
+    <t>餐桌礼仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%90%83</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%BB%9E</t>
   </si>
   <si>
-    <t>西點</t>
+    <t>西点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B9%E5%BF%83</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9C%E9%BB%9E</t>
   </si>
   <si>
-    <t>甜點</t>
+    <t>甜点</t>
   </si>
 </sst>
 </file>
